--- a/Area de proceso MA/TM_0.1_2015.xlsx
+++ b/Area de proceso MA/TM_0.1_2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\PDS\v2\PDS\MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\123DISKS\E\GitHub\gps-tracking\Area de proceso MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1513,21 +1513,21 @@
         <v>13</v>
       </c>
       <c r="C11" s="18">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18">
+        <v>4</v>
+      </c>
+      <c r="E11" s="18">
         <v>0</v>
-      </c>
-      <c r="D11" s="18">
-        <v>10</v>
-      </c>
-      <c r="E11" s="18">
-        <v>3</v>
       </c>
       <c r="F11" s="37">
         <f>G11</f>
-        <v>4.333333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G11" s="17">
         <f>AVERAGE(C11:E11)</f>
-        <v>4.333333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -1568,18 +1568,18 @@
         <v>0</v>
       </c>
       <c r="D13" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
       </c>
       <c r="F13" s="37">
         <f>G13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="17">
         <f>AVERAGE(C13:E13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3"/>
     </row>
